--- a/docs/기능정의/기능정의서.xlsx
+++ b/docs/기능정의/기능정의서.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="385">
   <si>
     <t>화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,14 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영문과 숫자, 특수문자가 포함되지 않은 경우 focousout시 입력컴포넌트 border red와 아래에 errorMessage출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영문과 숫자가 포함되지 않은 경우 focousout시 입력컴포넌트 border red처리와 아래에 errorMessage출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인에 성공한 경우 해당 아이디의 인바디 정보가 있는지 체크후 없다면 인바디 등록페이지 / 있다면 메인페이지로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,14 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중복 체크 후 성공 시 "사용가능한 아이디 입니다."  Modal출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 체크 후 실패 시 "이미 존재하는 아이디 입니다."  Modal출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컴포넌트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,30 +118,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5자 미만 입력 후 focousout시 입력컴포넌트 border red처리와 아래에 errorMessage 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입력 시 글자색은 검은색으로 20자가 넘어가면 추가 입력X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8자 미만 입력 후 focousout시 입력컴포넌트 border red처리와 아래에 errorMessage 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 체크 후 성공 시 입력컴포넌트 border green처리와 아래에 "사용 가능한 아이디입니다." message 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 체크 후 실패 시 입력컴포넌트 border red처리와 아래에 "이미 존재하는 아이디입니다." message 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 체크 후 실패 시 입력컴포넌트 value 초기화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중복 체크 실패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호 입력과 내용이 다르다면 입력컴포넌트 border red와 아래에 errorMessage출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호 체크 입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,22 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>처음 페이지가 열릴 때 placeholder "이메일" (이메일 예시?) 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 인증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>focusout시 이메일 형식에 맞지 않으면 border red처리와 아래에 errorMessage출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력된 이메일로 코드가 전송되고, 인증 코드 입력 Modal을 popup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시간만료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>틀리거나 빈값으로 인증하기를 클릭 시 입력 컴포넌트 아래에 errorMessage 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클릭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,14 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>modal을 닫고, 회원가입 페이지 display</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공시 modal을 닫고, 회원가입 페이지 display</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,18 +178,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>처음 페이지가 열릴 때 placeholder "생년월일을 -빼고 숫자만 입력해주세요." 표시 (date어떻게 받을지 타입정해지면 해당부분으로 작성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date타입이 정해지면 해당 글자 길이만큼 제한.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>덜 입력하거나 날짜가 없는 값( ex) 20220538 ) 을 입력 시 border red와 아래에 errorMessage 출력. 값은 초기화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>성별</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,18 +194,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선택안하고 밖의 영역 클릭 시 이전 값유지하고, 리스트 닫힘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>휴대폰 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>처음 페이지가 열릴 때 placeholder "휴대폰 번호를 -빼고 숫자만 입력해주세요." 표시 (phone어떻게 받을지 타입정해지면 해당부분으로 작성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,32 +206,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주소 검색창이 뜨고, 해당 주소 클릭시 주소값 insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그냥 닫을 시 이전값 유지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>취소 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클릭시 이전에 입력된 내용 초기화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증 되지 않은 부분, 필수값이지만 빈 값이 있다면, 해당 입력 컴포넌트들 중 첫번째 컴포넌트로 focus시키고 
-모든 잘못된 컴포넌트들에 대해 border red, 아래에 errorMessage 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭 후 실패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1481,23 +1372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이디 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복검사와 이메일 검증이 끝나고, 중간에 수정이되면 중복체크 성공flag가 false로.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간(5분)내 입력하지 않는다면, 만료되었습니다 Modal popup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에 성공하였습니다 Modal popup 후 로그인페이지로 이동.
-검증은 회원가입 버튼을 클릭했을 때.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅇ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1539,6 +1413,245 @@
   </si>
   <si>
     <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 페이지가 열릴 때 placeholder "아이디를 입력해주세요."표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 체크 후 성공 시 "사용 가능한 아이디 입니다."  Modal출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 체크 성공 후 클릭 비활성화.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 체크 성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 체크 성공 후 비활성화.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 체크 후 실패 시 기존 버튼 상태로 유지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 체크 후 실패 시 "이미 존재하는 아이디 입니다."  errorMessage Modal Popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 페이지가 열릴 때 placeholder "email형식을 지켜 작성해주세요" 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증완료 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 체크 후 성공 시 background lightgreen처리와 ✔test로 변경.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background lightgreen처리와 ✔test로 변경.</t>
+  </si>
+  <si>
+    <t>입력 비활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer 시간(5분)set후 1초씩 감소 , email코드 발송.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간(5분)내 입력하지 않는다면, Timer 시간(5분) 다시 set 후 다시 email코드 발송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀리거나 빈값으로 인증하기를 클릭 시 입력 컴포넌트 아래에 errorMessage Modal Popup 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 미 인증 시 "아이디 중복검사 먼저해주세요" warnMessageModal Popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일값이 비어있으면,"이메일값을 인증해주세요." warnMessageModal Popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증 Modal Popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닫기버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modal을 닫고, 이메일 인증 버튼 상태 유지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공시 modal을 닫고, 이메일 인증 버튼 상태 변경.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>placeholder "생일을 입력해주세요." 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덜 입력한 경우 빈값으로 처리.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜가 없는 값 00의 경우 01, 마지막날을 넘어가는 경우 마지막날로 값 set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 자리수 별로 글자수 만큼 placeholder 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 자리수 별로 글자제한 (3, 4, 4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>placeholder "우편번호"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 비활성화 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색창 Popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색결과가 없다면 없다는 Message Display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력시 연관 주소 listup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭한 주소가 우편번호와 주소값에 set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 비활성화 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닫기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전값 유지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호찾기로만 값 set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"상세주소를 입력해주세요" placeholder로 display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검증 통과 및 성공 시 로그인 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입 실패 시 error내용 errorMessageModal로 Popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 중복 확인을 안한 경우 "아이디 중복 확인 바랍니다." warnMessageModal Popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email 인증 확인을 안한 경우 "이메일 인증 확인 바랍니다." warnMessageModal Popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwrod와 passwordChk값이 다른 경우 "비밀번호를 확인 바랍니다." warnMessage Modal Popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 검증 미통과 시 해당 부분 errorMessageModal로 Popup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭 후 실패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1965,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -1985,135 +2098,135 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="C10" s="5" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -2121,87 +2234,87 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D19" s="7" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="C20" s="5" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D22" s="7" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2209,109 +2322,109 @@
         <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D25" s="7" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D26" s="7" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D27" s="7" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D29" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D30" s="7" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D31" s="5"/>
       <c r="E31" s="7" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="D33" s="7" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D34" s="7" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2319,97 +2432,97 @@
         <v>4</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D37" s="7" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D38" s="7" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C39" s="5" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D41" s="7" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D42" s="7" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D43" s="7" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="C44" s="5" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C45" s="5" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="66" x14ac:dyDescent="0.3">
@@ -2417,103 +2530,103 @@
         <v>5</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D48" s="7" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C49" s="5" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C50" s="5" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C51" s="5" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C52" s="5" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C53" s="5" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C54" s="5" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D55" s="7" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D56" s="7" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2521,32 +2634,32 @@
         <v>6</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D59" s="7" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D60" s="7" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2583,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -2609,7 +2722,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2617,10 +2730,10 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2634,7 +2747,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2645,15 +2758,15 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2661,48 +2774,48 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="F8" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="F9" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="F10" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2714,10 +2827,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2739,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -2753,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2762,7 +2875,10 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>325</v>
+      </c>
+      <c r="F3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2770,331 +2886,558 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>328</v>
+      </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>329</v>
+      </c>
+      <c r="F5" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>326</v>
+      </c>
+      <c r="F6" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>340</v>
+      </c>
+      <c r="F7" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>28</v>
+        <v>327</v>
+      </c>
+      <c r="F8" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>335</v>
+      </c>
+      <c r="F9" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E17" t="s">
+        <v>342</v>
+      </c>
+      <c r="F17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>349</v>
+      </c>
+      <c r="F18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>348</v>
+      </c>
+      <c r="F20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E21" t="s">
+        <v>341</v>
+      </c>
+      <c r="F21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>343</v>
+      </c>
+      <c r="E22" t="s">
+        <v>344</v>
+      </c>
+      <c r="F22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>345</v>
+      </c>
+      <c r="F23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
+      <c r="E24" t="s">
+        <v>346</v>
+      </c>
+      <c r="F24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>352</v>
+      </c>
+      <c r="F25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>350</v>
+      </c>
+      <c r="E26" t="s">
+        <v>351</v>
+      </c>
+      <c r="F26" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>353</v>
+      </c>
+      <c r="F29" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>354</v>
+      </c>
+      <c r="F31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>355</v>
+      </c>
+      <c r="F32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>356</v>
+      </c>
+      <c r="E35" t="s">
+        <v>357</v>
+      </c>
+      <c r="F35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>359</v>
+      </c>
+      <c r="E36" t="s">
+        <v>358</v>
+      </c>
+      <c r="F36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>360</v>
+      </c>
+      <c r="D37" t="s">
+        <v>361</v>
+      </c>
+      <c r="E37" t="s">
+        <v>362</v>
+      </c>
+      <c r="F37" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>363</v>
+      </c>
+      <c r="F38" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>364</v>
+      </c>
+      <c r="D39" t="s">
+        <v>365</v>
+      </c>
+      <c r="E39" t="s">
+        <v>366</v>
+      </c>
+      <c r="F39" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>367</v>
+      </c>
+      <c r="E40" t="s">
+        <v>368</v>
+      </c>
+      <c r="F40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>369</v>
+      </c>
+      <c r="F41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>370</v>
+      </c>
+      <c r="E42" t="s">
+        <v>371</v>
+      </c>
+      <c r="F42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>373</v>
+      </c>
+      <c r="E43" t="s">
+        <v>374</v>
+      </c>
+      <c r="F43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>372</v>
+      </c>
+      <c r="F44" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>375</v>
+      </c>
+      <c r="F45" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>376</v>
+      </c>
+      <c r="F46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>341</v>
-      </c>
-      <c r="E12" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
+      <c r="D48" t="s">
+        <v>382</v>
+      </c>
+      <c r="E48" t="s">
+        <v>379</v>
+      </c>
+      <c r="F48" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>381</v>
+      </c>
+      <c r="F49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>380</v>
+      </c>
+      <c r="F50" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E51" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F51" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>384</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F52" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
         <v>45</v>
       </c>
-      <c r="E29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>344</v>
+      <c r="E53" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F53" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3126,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -3140,139 +3483,139 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="4:5" ht="33" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="4:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3310,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -3324,102 +3667,102 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3427,106 +3770,106 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3534,76 +3877,76 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E36" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3640,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -3654,102 +3997,102 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3757,86 +4100,86 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3844,71 +4187,71 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="4:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3945,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -3959,102 +4302,102 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -4062,116 +4405,116 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -4179,86 +4522,86 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="E35" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E36" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E37" s="1" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E38" s="1" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E40" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4295,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -4309,107 +4652,107 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -4417,106 +4760,106 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -4524,76 +4867,76 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E35" s="1" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E37" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="3:5" ht="33" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4629,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -4643,142 +4986,142 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="E15" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
